--- a/dailyWorkReports/2024-02-18「あさか丸」日勤ー作業日報.xlsx
+++ b/dailyWorkReports/2024-02-18「あさか丸」日勤ー作業日報.xlsx
@@ -1656,7 +1656,11 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="M8" s="108" t="inlineStr"/>
+      <c r="M8" s="108" t="inlineStr">
+        <is>
+          <t>01:50</t>
+        </is>
+      </c>
       <c r="N8" s="34" t="inlineStr">
         <is>
           <t>M4</t>
@@ -1667,7 +1671,11 @@
       <c r="Q8" s="35" t="n"/>
       <c r="R8" s="35" t="n"/>
       <c r="S8" s="36" t="n"/>
-      <c r="T8" s="62" t="n"/>
+      <c r="T8" s="62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="30" customFormat="1" customHeight="1" s="3">
       <c r="A9" s="105" t="n"/>
@@ -1743,7 +1751,11 @@
           <t>10:50</t>
         </is>
       </c>
-      <c r="M10" s="108" t="inlineStr"/>
+      <c r="M10" s="108" t="inlineStr">
+        <is>
+          <t>01:20</t>
+        </is>
+      </c>
       <c r="N10" s="34" t="inlineStr">
         <is>
           <t>H7</t>
@@ -1754,7 +1766,11 @@
       <c r="Q10" s="35" t="n"/>
       <c r="R10" s="35" t="n"/>
       <c r="S10" s="36" t="n"/>
-      <c r="T10" s="62" t="n"/>
+      <c r="T10" s="62" t="inlineStr">
+        <is>
+          <t>00:50</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="30" customFormat="1" customHeight="1" s="3">
       <c r="A11" s="105" t="n"/>
@@ -1830,7 +1846,11 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="M12" s="109" t="inlineStr"/>
+      <c r="M12" s="109" t="inlineStr">
+        <is>
+          <t>01:40</t>
+        </is>
+      </c>
       <c r="N12" s="46" t="inlineStr">
         <is>
           <t>B5</t>
@@ -1841,7 +1861,11 @@
       <c r="Q12" s="39" t="n"/>
       <c r="R12" s="39" t="n"/>
       <c r="S12" s="40" t="n"/>
-      <c r="T12" s="62" t="n"/>
+      <c r="T12" s="62" t="inlineStr">
+        <is>
+          <t>01:40</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="30" customFormat="1" customHeight="1" s="3">
       <c r="A13" s="105" t="n"/>
@@ -1857,7 +1881,11 @@
       <c r="K13" s="106" t="n"/>
       <c r="L13" s="107" t="n"/>
       <c r="M13" s="107" t="n"/>
-      <c r="N13" s="43" t="inlineStr"/>
+      <c r="N13" s="43" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="O13" s="68" t="n"/>
       <c r="P13" s="68" t="n"/>
       <c r="Q13" s="41" t="n"/>
@@ -1928,7 +1956,11 @@
       <c r="Q14" s="35" t="n"/>
       <c r="R14" s="35" t="n"/>
       <c r="S14" s="36" t="n"/>
-      <c r="T14" s="62" t="n"/>
+      <c r="T14" s="62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="30" customFormat="1" customHeight="1" s="3">
       <c r="A15" s="105" t="n"/>
@@ -2122,7 +2154,11 @@
       <c r="Q23" s="113" t="n"/>
       <c r="R23" s="113" t="n"/>
       <c r="S23" s="9" t="n"/>
-      <c r="T23" s="62" t="n"/>
+      <c r="T23" s="62" t="inlineStr">
+        <is>
+          <t>02:30</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="12" customHeight="1">
       <c r="A24" s="45" t="n"/>
